--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Psen1-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Psen1-Notch2.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.2726235</v>
+        <v>18.2248715</v>
       </c>
       <c r="H2">
-        <v>32.545247</v>
+        <v>36.449743</v>
       </c>
       <c r="I2">
-        <v>0.1150896855633734</v>
+        <v>0.1050100244082758</v>
       </c>
       <c r="J2">
-        <v>0.08350961674642161</v>
+        <v>0.07502966121475142</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.263127</v>
+        <v>3.6221635</v>
       </c>
       <c r="N2">
-        <v>2.526254</v>
+        <v>7.244327</v>
       </c>
       <c r="O2">
-        <v>0.008853724851211806</v>
+        <v>0.01770926137088299</v>
       </c>
       <c r="P2">
-        <v>0.006359620920621169</v>
+        <v>0.01222004485606616</v>
       </c>
       <c r="Q2">
-        <v>20.5543901036845</v>
+        <v>66.01346433949024</v>
       </c>
       <c r="R2">
-        <v>82.21756041473802</v>
+        <v>264.053857357961</v>
       </c>
       <c r="S2">
-        <v>0.001018972409190592</v>
+        <v>0.001859649968808958</v>
       </c>
       <c r="T2">
-        <v>0.0005310895057335989</v>
+        <v>0.0009168658255797096</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.2726235</v>
+        <v>18.2248715</v>
       </c>
       <c r="H3">
-        <v>32.545247</v>
+        <v>36.449743</v>
       </c>
       <c r="I3">
-        <v>0.1150896855633734</v>
+        <v>0.1050100244082758</v>
       </c>
       <c r="J3">
-        <v>0.08350961674642161</v>
+        <v>0.07502966121475142</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>49.664215</v>
       </c>
       <c r="O3">
-        <v>0.1160382908346841</v>
+        <v>0.08093841928217094</v>
       </c>
       <c r="P3">
-        <v>0.1250252669447441</v>
+        <v>0.08377575101749463</v>
       </c>
       <c r="Q3">
-        <v>269.3890240393508</v>
+        <v>301.7079788411241</v>
       </c>
       <c r="R3">
-        <v>1616.334144236105</v>
+        <v>1810.247873046745</v>
       </c>
       <c r="S3">
-        <v>0.01335481040547507</v>
+        <v>0.008499345384388029</v>
       </c>
       <c r="T3">
-        <v>0.01044081212617464</v>
+        <v>0.006285666216853988</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.2726235</v>
+        <v>18.2248715</v>
       </c>
       <c r="H4">
-        <v>32.545247</v>
+        <v>36.449743</v>
       </c>
       <c r="I4">
-        <v>0.1150896855633734</v>
+        <v>0.1050100244082758</v>
       </c>
       <c r="J4">
-        <v>0.08350961674642161</v>
+        <v>0.07502966121475142</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>43.17386966666666</v>
+        <v>59.86223333333334</v>
       </c>
       <c r="N4">
-        <v>129.521609</v>
+        <v>179.5867</v>
       </c>
       <c r="O4">
-        <v>0.3026216388302571</v>
+        <v>0.292674788519288</v>
       </c>
       <c r="P4">
-        <v>0.3260591905124801</v>
+        <v>0.302934631409225</v>
       </c>
       <c r="Q4">
-        <v>702.5521261237371</v>
+        <v>1090.981510203017</v>
       </c>
       <c r="R4">
-        <v>4215.312756742423</v>
+        <v>6545.8890612181</v>
       </c>
       <c r="S4">
-        <v>0.03482862925764704</v>
+        <v>0.03073378668609738</v>
       </c>
       <c r="T4">
-        <v>0.02722907803634568</v>
+        <v>0.02272908276484975</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.2726235</v>
+        <v>18.2248715</v>
       </c>
       <c r="H5">
-        <v>32.545247</v>
+        <v>36.449743</v>
       </c>
       <c r="I5">
-        <v>0.1150896855633734</v>
+        <v>0.1050100244082758</v>
       </c>
       <c r="J5">
-        <v>0.08350961674642161</v>
+        <v>0.07502966121475142</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.501953</v>
+        <v>17.159516</v>
       </c>
       <c r="N5">
-        <v>59.003906</v>
+        <v>34.319032</v>
       </c>
       <c r="O5">
-        <v>0.2067901125028462</v>
+        <v>0.08389526144853719</v>
       </c>
       <c r="P5">
-        <v>0.1485371126561165</v>
+        <v>0.05789083105397781</v>
       </c>
       <c r="Q5">
-        <v>480.0741736836956</v>
+        <v>312.729974102194</v>
       </c>
       <c r="R5">
-        <v>1920.296694734782</v>
+        <v>1250.919896408776</v>
       </c>
       <c r="S5">
-        <v>0.02379940902556719</v>
+        <v>0.008809843452449569</v>
       </c>
       <c r="T5">
-        <v>0.01240427735053234</v>
+        <v>0.004343529441420366</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.2726235</v>
+        <v>18.2248715</v>
       </c>
       <c r="H6">
-        <v>32.545247</v>
+        <v>36.449743</v>
       </c>
       <c r="I6">
-        <v>0.1150896855633734</v>
+        <v>0.1050100244082758</v>
       </c>
       <c r="J6">
-        <v>0.08350961674642161</v>
+        <v>0.07502966121475142</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.697247666666667</v>
+        <v>77.18956900000001</v>
       </c>
       <c r="N6">
-        <v>5.091743</v>
+        <v>231.568707</v>
       </c>
       <c r="O6">
-        <v>0.0118966373492356</v>
+        <v>0.3773905436700489</v>
       </c>
       <c r="P6">
-        <v>0.01281801248220741</v>
+        <v>0.3906201344584861</v>
       </c>
       <c r="Q6">
-        <v>27.61867226592017</v>
+        <v>1406.769976165383</v>
       </c>
       <c r="R6">
-        <v>165.712033595521</v>
+        <v>8440.619856992302</v>
       </c>
       <c r="S6">
-        <v>0.00136918025178501</v>
+        <v>0.0396297902022443</v>
       </c>
       <c r="T6">
-        <v>0.001070427309839989</v>
+        <v>0.02930809635208086</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>16.2726235</v>
+        <v>18.2248715</v>
       </c>
       <c r="H7">
-        <v>32.545247</v>
+        <v>36.449743</v>
       </c>
       <c r="I7">
-        <v>0.1150896855633734</v>
+        <v>0.1050100244082758</v>
       </c>
       <c r="J7">
-        <v>0.08350961674642161</v>
+        <v>0.07502966121475142</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>50.47523266666667</v>
+        <v>30.14676433333333</v>
       </c>
       <c r="N7">
-        <v>151.425698</v>
+        <v>90.440293</v>
       </c>
       <c r="O7">
-        <v>0.3537995956317652</v>
+        <v>0.1473917257090722</v>
       </c>
       <c r="P7">
-        <v>0.3812007964838307</v>
+        <v>0.1525586072047502</v>
       </c>
       <c r="Q7">
-        <v>821.3644572595678</v>
+        <v>549.4209061157832</v>
       </c>
       <c r="R7">
-        <v>4928.186743557407</v>
+        <v>3296.525436694699</v>
       </c>
       <c r="S7">
-        <v>0.04071868421370851</v>
+        <v>0.01547760871428756</v>
       </c>
       <c r="T7">
-        <v>0.03183393241779536</v>
+        <v>0.01144642061396674</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>71.79459</v>
       </c>
       <c r="I8">
-        <v>0.169258034068719</v>
+        <v>0.137891263015346</v>
       </c>
       <c r="J8">
-        <v>0.1842216375056694</v>
+        <v>0.147784958723906</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.263127</v>
+        <v>3.6221635</v>
       </c>
       <c r="N8">
-        <v>2.526254</v>
+        <v>7.244327</v>
       </c>
       <c r="O8">
-        <v>0.008853724851211806</v>
+        <v>0.01770926137088299</v>
       </c>
       <c r="P8">
-        <v>0.006359620920621169</v>
+        <v>0.01222004485606616</v>
       </c>
       <c r="Q8">
-        <v>30.22856169431</v>
+        <v>86.683914465155</v>
       </c>
       <c r="R8">
-        <v>181.37137016586</v>
+        <v>520.10348679093</v>
       </c>
       <c r="S8">
-        <v>0.001498564062501472</v>
+        <v>0.002441952417499934</v>
       </c>
       <c r="T8">
-        <v>0.001171579779912144</v>
+        <v>0.001805938824658017</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>71.79459</v>
       </c>
       <c r="I9">
-        <v>0.169258034068719</v>
+        <v>0.137891263015346</v>
       </c>
       <c r="J9">
-        <v>0.1842216375056694</v>
+        <v>0.147784958723906</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>49.664215</v>
       </c>
       <c r="O9">
-        <v>0.1160382908346841</v>
+        <v>0.08093841928217094</v>
       </c>
       <c r="P9">
-        <v>0.1250252669447441</v>
+        <v>0.08377575101749463</v>
       </c>
       <c r="Q9">
         <v>396.1802170663166</v>
@@ -1013,10 +1013,10 @@
         <v>3565.62195359685</v>
       </c>
       <c r="S9">
-        <v>0.01964041298337289</v>
+        <v>0.01116070086128419</v>
       </c>
       <c r="T9">
-        <v>0.0230323594061442</v>
+        <v>0.01238079590618467</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>71.79459</v>
       </c>
       <c r="I10">
-        <v>0.169258034068719</v>
+        <v>0.137891263015346</v>
       </c>
       <c r="J10">
-        <v>0.1842216375056694</v>
+        <v>0.147784958723906</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>43.17386966666666</v>
+        <v>59.86223333333334</v>
       </c>
       <c r="N10">
-        <v>129.521609</v>
+        <v>179.5867</v>
       </c>
       <c r="O10">
-        <v>0.3026216388302571</v>
+        <v>0.292674788519288</v>
       </c>
       <c r="P10">
-        <v>0.3260591905124801</v>
+        <v>0.302934631409225</v>
       </c>
       <c r="Q10">
-        <v>1033.216757143923</v>
+        <v>1432.594832883667</v>
       </c>
       <c r="R10">
-        <v>9298.950814295309</v>
+        <v>12893.353495953</v>
       </c>
       <c r="S10">
-        <v>0.05122114365506324</v>
+        <v>0.04035729624167392</v>
       </c>
       <c r="T10">
-        <v>0.0600671579999821</v>
+        <v>0.04476918199885398</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>71.79459</v>
       </c>
       <c r="I11">
-        <v>0.169258034068719</v>
+        <v>0.137891263015346</v>
       </c>
       <c r="J11">
-        <v>0.1842216375056694</v>
+        <v>0.147784958723906</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.501953</v>
+        <v>17.159516</v>
       </c>
       <c r="N11">
-        <v>59.003906</v>
+        <v>34.319032</v>
       </c>
       <c r="O11">
-        <v>0.2067901125028462</v>
+        <v>0.08389526144853719</v>
       </c>
       <c r="P11">
-        <v>0.1485371126561165</v>
+        <v>0.05789083105397781</v>
       </c>
       <c r="Q11">
-        <v>706.02687327809</v>
+        <v>410.65347193948</v>
       </c>
       <c r="R11">
-        <v>4236.16123966854</v>
+        <v>2463.92083163688</v>
       </c>
       <c r="S11">
-        <v>0.03500088790708098</v>
+        <v>0.01156842356214146</v>
       </c>
       <c r="T11">
-        <v>0.02736375012387387</v>
+        <v>0.008555394077804724</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>71.79459</v>
       </c>
       <c r="I12">
-        <v>0.169258034068719</v>
+        <v>0.137891263015346</v>
       </c>
       <c r="J12">
-        <v>0.1842216375056694</v>
+        <v>0.147784958723906</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.697247666666667</v>
+        <v>77.18956900000001</v>
       </c>
       <c r="N12">
-        <v>5.091743</v>
+        <v>231.568707</v>
       </c>
       <c r="O12">
-        <v>0.0118966373492356</v>
+        <v>0.3773905436700489</v>
       </c>
       <c r="P12">
-        <v>0.01281801248220741</v>
+        <v>0.3906201344584861</v>
       </c>
       <c r="Q12">
-        <v>40.61773345226333</v>
+        <v>1847.26448621057</v>
       </c>
       <c r="R12">
-        <v>365.55960107037</v>
+        <v>16625.38037589513</v>
       </c>
       <c r="S12">
-        <v>0.002013601449760114</v>
+        <v>0.05203885871671115</v>
       </c>
       <c r="T12">
-        <v>0.002361355249040358</v>
+        <v>0.05772778044767397</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>71.79459</v>
       </c>
       <c r="I13">
-        <v>0.169258034068719</v>
+        <v>0.137891263015346</v>
       </c>
       <c r="J13">
-        <v>0.1842216375056694</v>
+        <v>0.147784958723906</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>50.47523266666667</v>
+        <v>30.14676433333333</v>
       </c>
       <c r="N13">
-        <v>151.425698</v>
+        <v>90.440293</v>
       </c>
       <c r="O13">
-        <v>0.3537995956317652</v>
+        <v>0.1473917257090722</v>
       </c>
       <c r="P13">
-        <v>0.3812007964838307</v>
+        <v>0.1525586072047502</v>
       </c>
       <c r="Q13">
-        <v>1207.949544819313</v>
+        <v>721.4581950460966</v>
       </c>
       <c r="R13">
-        <v>10871.54590337382</v>
+        <v>6493.12375541487</v>
       </c>
       <c r="S13">
-        <v>0.05988342401094032</v>
+        <v>0.02032403121603542</v>
       </c>
       <c r="T13">
-        <v>0.07022543494671669</v>
+        <v>0.02254586746873059</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>35.08101266666667</v>
+        <v>40.038578</v>
       </c>
       <c r="H14">
-        <v>105.243038</v>
+        <v>120.115734</v>
       </c>
       <c r="I14">
-        <v>0.2481138162541146</v>
+        <v>0.230698584242564</v>
       </c>
       <c r="J14">
-        <v>0.2700488267490822</v>
+        <v>0.2472512036252546</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.263127</v>
+        <v>3.6221635</v>
       </c>
       <c r="N14">
-        <v>2.526254</v>
+        <v>7.244327</v>
       </c>
       <c r="O14">
-        <v>0.008853724851211806</v>
+        <v>0.01770926137088299</v>
       </c>
       <c r="P14">
-        <v>0.006359620920621169</v>
+        <v>0.01222004485606616</v>
       </c>
       <c r="Q14">
-        <v>44.31177428660868</v>
+        <v>145.026275823503</v>
       </c>
       <c r="R14">
-        <v>265.870645719652</v>
+        <v>870.157654941018</v>
       </c>
       <c r="S14">
-        <v>0.002196731460898054</v>
+        <v>0.004085501526244234</v>
       </c>
       <c r="T14">
-        <v>0.001717408168182665</v>
+        <v>0.003021420799016959</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>35.08101266666667</v>
+        <v>40.038578</v>
       </c>
       <c r="H15">
-        <v>105.243038</v>
+        <v>120.115734</v>
       </c>
       <c r="I15">
-        <v>0.2481138162541146</v>
+        <v>0.230698584242564</v>
       </c>
       <c r="J15">
-        <v>0.2700488267490822</v>
+        <v>0.2472512036252546</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>49.664215</v>
       </c>
       <c r="O15">
-        <v>0.1160382908346841</v>
+        <v>0.08093841928217094</v>
       </c>
       <c r="P15">
-        <v>0.1250252669447441</v>
+        <v>0.08377575101749463</v>
       </c>
       <c r="Q15">
-        <v>580.7569851650189</v>
+        <v>662.8281820287567</v>
       </c>
       <c r="R15">
-        <v>5226.81286648517</v>
+        <v>5965.45363825881</v>
       </c>
       <c r="S15">
-        <v>0.02879070317059832</v>
+        <v>0.01867237873922788</v>
       </c>
       <c r="T15">
-        <v>0.03376292665241896</v>
+        <v>0.02071365527368519</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>35.08101266666667</v>
+        <v>40.038578</v>
       </c>
       <c r="H16">
-        <v>105.243038</v>
+        <v>120.115734</v>
       </c>
       <c r="I16">
-        <v>0.2481138162541146</v>
+        <v>0.230698584242564</v>
       </c>
       <c r="J16">
-        <v>0.2700488267490822</v>
+        <v>0.2472512036252546</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>43.17386966666666</v>
+        <v>59.86223333333334</v>
       </c>
       <c r="N16">
-        <v>129.521609</v>
+        <v>179.5867</v>
       </c>
       <c r="O16">
-        <v>0.3026216388302571</v>
+        <v>0.292674788519288</v>
       </c>
       <c r="P16">
-        <v>0.3260591905124801</v>
+        <v>0.302934631409225</v>
       </c>
       <c r="Q16">
-        <v>1514.583068645349</v>
+        <v>2396.798698570867</v>
       </c>
       <c r="R16">
-        <v>13631.24761780814</v>
+        <v>21571.1882871378</v>
       </c>
       <c r="S16">
-        <v>0.07508460969124944</v>
+        <v>0.06751965935489156</v>
       </c>
       <c r="T16">
-        <v>0.08805190184865073</v>
+        <v>0.07490095223570374</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>35.08101266666667</v>
+        <v>40.038578</v>
       </c>
       <c r="H17">
-        <v>105.243038</v>
+        <v>120.115734</v>
       </c>
       <c r="I17">
-        <v>0.2481138162541146</v>
+        <v>0.230698584242564</v>
       </c>
       <c r="J17">
-        <v>0.2700488267490822</v>
+        <v>0.2472512036252546</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>29.501953</v>
+        <v>17.159516</v>
       </c>
       <c r="N17">
-        <v>59.003906</v>
+        <v>34.319032</v>
       </c>
       <c r="O17">
-        <v>0.2067901125028462</v>
+        <v>0.08389526144853719</v>
       </c>
       <c r="P17">
-        <v>0.1485371126561165</v>
+        <v>0.05789083105397781</v>
       </c>
       <c r="Q17">
-        <v>1034.958386884405</v>
+        <v>687.042619808248</v>
       </c>
       <c r="R17">
-        <v>6209.750321306429</v>
+        <v>4122.255718849488</v>
       </c>
       <c r="S17">
-        <v>0.05130748397669888</v>
+        <v>0.01935451804083729</v>
       </c>
       <c r="T17">
-        <v>0.04011227300148051</v>
+        <v>0.01431357765696228</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>35.08101266666667</v>
+        <v>40.038578</v>
       </c>
       <c r="H18">
-        <v>105.243038</v>
+        <v>120.115734</v>
       </c>
       <c r="I18">
-        <v>0.2481138162541146</v>
+        <v>0.230698584242564</v>
       </c>
       <c r="J18">
-        <v>0.2700488267490822</v>
+        <v>0.2472512036252546</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.697247666666667</v>
+        <v>77.18956900000001</v>
       </c>
       <c r="N18">
-        <v>5.091743</v>
+        <v>231.568707</v>
       </c>
       <c r="O18">
-        <v>0.0118966373492356</v>
+        <v>0.3773905436700489</v>
       </c>
       <c r="P18">
-        <v>0.01281801248220741</v>
+        <v>0.3906201344584861</v>
       </c>
       <c r="Q18">
-        <v>59.54116689280379</v>
+        <v>3090.560579192882</v>
       </c>
       <c r="R18">
-        <v>535.870502035234</v>
+        <v>27815.04521273594</v>
       </c>
       <c r="S18">
-        <v>0.002951720093310079</v>
+        <v>0.0870634641312118</v>
       </c>
       <c r="T18">
-        <v>0.003461489232075201</v>
+        <v>0.09658129840511949</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>35.08101266666667</v>
+        <v>40.038578</v>
       </c>
       <c r="H19">
-        <v>105.243038</v>
+        <v>120.115734</v>
       </c>
       <c r="I19">
-        <v>0.2481138162541146</v>
+        <v>0.230698584242564</v>
       </c>
       <c r="J19">
-        <v>0.2700488267490822</v>
+        <v>0.2472512036252546</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>50.47523266666667</v>
+        <v>30.14676433333333</v>
       </c>
       <c r="N19">
-        <v>151.425698</v>
+        <v>90.440293</v>
       </c>
       <c r="O19">
-        <v>0.3537995956317652</v>
+        <v>0.1473917257090722</v>
       </c>
       <c r="P19">
-        <v>0.3812007964838307</v>
+        <v>0.1525586072047502</v>
       </c>
       <c r="Q19">
-        <v>1770.722276532281</v>
+        <v>1207.033575207785</v>
       </c>
       <c r="R19">
-        <v>15936.50048879053</v>
+        <v>10863.30217687006</v>
       </c>
       <c r="S19">
-        <v>0.08778256786135982</v>
+        <v>0.03400306245015128</v>
       </c>
       <c r="T19">
-        <v>0.1029428278462741</v>
+        <v>0.03772029925476692</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>18.181244</v>
+        <v>16.631589</v>
       </c>
       <c r="H20">
-        <v>36.362488</v>
+        <v>33.263178</v>
       </c>
       <c r="I20">
-        <v>0.1285885865368279</v>
+        <v>0.09582967796718955</v>
       </c>
       <c r="J20">
-        <v>0.09330448273526253</v>
+        <v>0.06847030378968577</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.263127</v>
+        <v>3.6221635</v>
       </c>
       <c r="N20">
-        <v>2.526254</v>
+        <v>7.244327</v>
       </c>
       <c r="O20">
-        <v>0.008853724851211806</v>
+        <v>0.01770926137088299</v>
       </c>
       <c r="P20">
-        <v>0.006359620920621169</v>
+        <v>0.01222004485606616</v>
       </c>
       <c r="Q20">
-        <v>22.965220189988</v>
+        <v>60.24233462280149</v>
       </c>
       <c r="R20">
-        <v>91.86088075995201</v>
+        <v>240.969338491206</v>
       </c>
       <c r="S20">
-        <v>0.001138487964203313</v>
+        <v>0.001697072814208507</v>
       </c>
       <c r="T20">
-        <v>0.0005933811403909123</v>
+        <v>0.0008367101836184368</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>18.181244</v>
+        <v>16.631589</v>
       </c>
       <c r="H21">
-        <v>36.362488</v>
+        <v>33.263178</v>
       </c>
       <c r="I21">
-        <v>0.1285885865368279</v>
+        <v>0.09582967796718955</v>
       </c>
       <c r="J21">
-        <v>0.09330448273526253</v>
+        <v>0.06847030378968577</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>49.664215</v>
       </c>
       <c r="O21">
-        <v>0.1160382908346841</v>
+        <v>0.08093841928217094</v>
       </c>
       <c r="P21">
-        <v>0.1250252669447441</v>
+        <v>0.08377575101749463</v>
       </c>
       <c r="Q21">
-        <v>300.9857369944867</v>
+        <v>275.331603962545</v>
       </c>
       <c r="R21">
-        <v>1805.91442196692</v>
+        <v>1651.98962377527</v>
       </c>
       <c r="S21">
-        <v>0.01492119980258138</v>
+        <v>0.007756302654983806</v>
       </c>
       <c r="T21">
-        <v>0.01166541786111747</v>
+        <v>0.005736151122376934</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>18.181244</v>
+        <v>16.631589</v>
       </c>
       <c r="H22">
-        <v>36.362488</v>
+        <v>33.263178</v>
       </c>
       <c r="I22">
-        <v>0.1285885865368279</v>
+        <v>0.09582967796718955</v>
       </c>
       <c r="J22">
-        <v>0.09330448273526253</v>
+        <v>0.06847030378968577</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>43.17386966666666</v>
+        <v>59.86223333333334</v>
       </c>
       <c r="N22">
-        <v>129.521609</v>
+        <v>179.5867</v>
       </c>
       <c r="O22">
-        <v>0.3026216388302571</v>
+        <v>0.292674788519288</v>
       </c>
       <c r="P22">
-        <v>0.3260591905124801</v>
+        <v>0.302934631409225</v>
       </c>
       <c r="Q22">
-        <v>784.9546588338652</v>
+        <v>995.6040614220999</v>
       </c>
       <c r="R22">
-        <v>4709.727953003191</v>
+        <v>5973.6243685326</v>
       </c>
       <c r="S22">
-        <v>0.03891368879264119</v>
+        <v>0.02804693073291867</v>
       </c>
       <c r="T22">
-        <v>0.03042278411184537</v>
+        <v>0.02074202624100612</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>18.181244</v>
+        <v>16.631589</v>
       </c>
       <c r="H23">
-        <v>36.362488</v>
+        <v>33.263178</v>
       </c>
       <c r="I23">
-        <v>0.1285885865368279</v>
+        <v>0.09582967796718955</v>
       </c>
       <c r="J23">
-        <v>0.09330448273526253</v>
+        <v>0.06847030378968577</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>29.501953</v>
+        <v>17.159516</v>
       </c>
       <c r="N23">
-        <v>59.003906</v>
+        <v>34.319032</v>
       </c>
       <c r="O23">
-        <v>0.2067901125028462</v>
+        <v>0.08389526144853719</v>
       </c>
       <c r="P23">
-        <v>0.1485371126561165</v>
+        <v>0.05789083105397781</v>
       </c>
       <c r="Q23">
-        <v>536.382205969532</v>
+        <v>285.390017550924</v>
       </c>
       <c r="R23">
-        <v>2145.528823878128</v>
+        <v>1141.560070203696</v>
       </c>
       <c r="S23">
-        <v>0.02659084827653262</v>
+        <v>0.008039655887586492</v>
       </c>
       <c r="T23">
-        <v>0.01385917846336837</v>
+        <v>0.003963802788903235</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>18.181244</v>
+        <v>16.631589</v>
       </c>
       <c r="H24">
-        <v>36.362488</v>
+        <v>33.263178</v>
       </c>
       <c r="I24">
-        <v>0.1285885865368279</v>
+        <v>0.09582967796718955</v>
       </c>
       <c r="J24">
-        <v>0.09330448273526253</v>
+        <v>0.06847030378968577</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.697247666666667</v>
+        <v>77.18956900000001</v>
       </c>
       <c r="N24">
-        <v>5.091743</v>
+        <v>231.568707</v>
       </c>
       <c r="O24">
-        <v>0.0118966373492356</v>
+        <v>0.3773905436700489</v>
       </c>
       <c r="P24">
-        <v>0.01281801248220741</v>
+        <v>0.3906201344584861</v>
       </c>
       <c r="Q24">
-        <v>30.85807395609733</v>
+        <v>1283.785186695141</v>
       </c>
       <c r="R24">
-        <v>185.148443736584</v>
+        <v>7702.711120170846</v>
       </c>
       <c r="S24">
-        <v>0.001529771781279441</v>
+        <v>0.03616521426776337</v>
       </c>
       <c r="T24">
-        <v>0.001195978024346501</v>
+        <v>0.02674587927274045</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>18.181244</v>
+        <v>16.631589</v>
       </c>
       <c r="H25">
-        <v>36.362488</v>
+        <v>33.263178</v>
       </c>
       <c r="I25">
-        <v>0.1285885865368279</v>
+        <v>0.09582967796718955</v>
       </c>
       <c r="J25">
-        <v>0.09330448273526253</v>
+        <v>0.06847030378968577</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>50.47523266666667</v>
+        <v>30.14676433333333</v>
       </c>
       <c r="N25">
-        <v>151.425698</v>
+        <v>90.440293</v>
       </c>
       <c r="O25">
-        <v>0.3537995956317652</v>
+        <v>0.1473917257090722</v>
       </c>
       <c r="P25">
-        <v>0.3812007964838307</v>
+        <v>0.1525586072047502</v>
       </c>
       <c r="Q25">
-        <v>917.7025210694374</v>
+        <v>501.388594071859</v>
       </c>
       <c r="R25">
-        <v>5506.215126416624</v>
+        <v>3008.331564431154</v>
       </c>
       <c r="S25">
-        <v>0.04549458991958995</v>
+        <v>0.01412450160972872</v>
       </c>
       <c r="T25">
-        <v>0.0355677431341939</v>
+        <v>0.01044573418104059</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>10.13617966666667</v>
+        <v>40.65061833333333</v>
       </c>
       <c r="H26">
-        <v>30.408539</v>
+        <v>121.951855</v>
       </c>
       <c r="I26">
-        <v>0.07168909983387288</v>
+        <v>0.2342251040505189</v>
       </c>
       <c r="J26">
-        <v>0.07802692164876225</v>
+        <v>0.251030751167724</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.263127</v>
+        <v>3.6221635</v>
       </c>
       <c r="N26">
-        <v>2.526254</v>
+        <v>7.244327</v>
       </c>
       <c r="O26">
-        <v>0.008853724851211806</v>
+        <v>0.01770926137088299</v>
       </c>
       <c r="P26">
-        <v>0.006359620920621169</v>
+        <v>0.01222004485606616</v>
       </c>
       <c r="Q26">
-        <v>12.80328221381767</v>
+        <v>147.2431859794308</v>
       </c>
       <c r="R26">
-        <v>76.81969328290602</v>
+        <v>883.459115876585</v>
       </c>
       <c r="S26">
-        <v>0.0006347155647601645</v>
+        <v>0.004147953587252903</v>
       </c>
       <c r="T26">
-        <v>0.0004962216432891373</v>
+        <v>0.00306760703952157</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>10.13617966666667</v>
+        <v>40.65061833333333</v>
       </c>
       <c r="H27">
-        <v>30.408539</v>
+        <v>121.951855</v>
       </c>
       <c r="I27">
-        <v>0.07168909983387288</v>
+        <v>0.2342251040505189</v>
       </c>
       <c r="J27">
-        <v>0.07802692164876225</v>
+        <v>0.251030751167724</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>49.664215</v>
       </c>
       <c r="O27">
-        <v>0.1160382908346841</v>
+        <v>0.08093841928217094</v>
       </c>
       <c r="P27">
-        <v>0.1250252669447441</v>
+        <v>0.08377575101749463</v>
       </c>
       <c r="Q27">
-        <v>167.8018020813206</v>
+        <v>672.960349596536</v>
       </c>
       <c r="R27">
-        <v>1510.216218731885</v>
+        <v>6056.643146368825</v>
       </c>
       <c r="S27">
-        <v>0.008318680616199645</v>
+        <v>0.01895780967805101</v>
       </c>
       <c r="T27">
-        <v>0.009755336708013136</v>
+        <v>0.0210302897075619</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>10.13617966666667</v>
+        <v>40.65061833333333</v>
       </c>
       <c r="H28">
-        <v>30.408539</v>
+        <v>121.951855</v>
       </c>
       <c r="I28">
-        <v>0.07168909983387288</v>
+        <v>0.2342251040505189</v>
       </c>
       <c r="J28">
-        <v>0.07802692164876225</v>
+        <v>0.251030751167724</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>43.17386966666666</v>
+        <v>59.86223333333334</v>
       </c>
       <c r="N28">
-        <v>129.521609</v>
+        <v>179.5867</v>
       </c>
       <c r="O28">
-        <v>0.3026216388302571</v>
+        <v>0.292674788519288</v>
       </c>
       <c r="P28">
-        <v>0.3260591905124801</v>
+        <v>0.302934631409225</v>
       </c>
       <c r="Q28">
-        <v>437.6180998465835</v>
+        <v>2433.436799814278</v>
       </c>
       <c r="R28">
-        <v>3938.562898619251</v>
+        <v>21900.9311983285</v>
       </c>
       <c r="S28">
-        <v>0.02169467287799252</v>
+        <v>0.06855178279389385</v>
       </c>
       <c r="T28">
-        <v>0.02544139491097613</v>
+        <v>0.07604590807737535</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>10.13617966666667</v>
+        <v>40.65061833333333</v>
       </c>
       <c r="H29">
-        <v>30.408539</v>
+        <v>121.951855</v>
       </c>
       <c r="I29">
-        <v>0.07168909983387288</v>
+        <v>0.2342251040505189</v>
       </c>
       <c r="J29">
-        <v>0.07802692164876225</v>
+        <v>0.251030751167724</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>29.501953</v>
+        <v>17.159516</v>
       </c>
       <c r="N29">
-        <v>59.003906</v>
+        <v>34.319032</v>
       </c>
       <c r="O29">
-        <v>0.2067901125028462</v>
+        <v>0.08389526144853719</v>
       </c>
       <c r="P29">
-        <v>0.1485371126561165</v>
+        <v>0.05789083105397781</v>
       </c>
       <c r="Q29">
-        <v>299.0370961255557</v>
+        <v>697.5449357007267</v>
       </c>
       <c r="R29">
-        <v>1794.222576753334</v>
+        <v>4185.26961420436</v>
       </c>
       <c r="S29">
-        <v>0.01482459701987435</v>
+        <v>0.01965037634212911</v>
       </c>
       <c r="T29">
-        <v>0.01158989365115217</v>
+        <v>0.01453237880520385</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>10.13617966666667</v>
+        <v>40.65061833333333</v>
       </c>
       <c r="H30">
-        <v>30.408539</v>
+        <v>121.951855</v>
       </c>
       <c r="I30">
-        <v>0.07168909983387288</v>
+        <v>0.2342251040505189</v>
       </c>
       <c r="J30">
-        <v>0.07802692164876225</v>
+        <v>0.251030751167724</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.697247666666667</v>
+        <v>77.18956900000001</v>
       </c>
       <c r="N30">
-        <v>5.091743</v>
+        <v>231.568707</v>
       </c>
       <c r="O30">
-        <v>0.0118966373492356</v>
+        <v>0.3773905436700489</v>
       </c>
       <c r="P30">
-        <v>0.01281801248220741</v>
+        <v>0.3906201344584861</v>
       </c>
       <c r="Q30">
-        <v>17.20360728816411</v>
+        <v>3137.803708733499</v>
       </c>
       <c r="R30">
-        <v>154.832465593477</v>
+        <v>28240.23337860149</v>
       </c>
       <c r="S30">
-        <v>0.0008528592226167318</v>
+        <v>0.0883943393587991</v>
       </c>
       <c r="T30">
-        <v>0.001000150055642054</v>
+        <v>0.09805766577435113</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>10.13617966666667</v>
+        <v>40.65061833333333</v>
       </c>
       <c r="H31">
-        <v>30.408539</v>
+        <v>121.951855</v>
       </c>
       <c r="I31">
-        <v>0.07168909983387288</v>
+        <v>0.2342251040505189</v>
       </c>
       <c r="J31">
-        <v>0.07802692164876225</v>
+        <v>0.251030751167724</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>50.47523266666667</v>
+        <v>30.14676433333333</v>
       </c>
       <c r="N31">
-        <v>151.425698</v>
+        <v>90.440293</v>
       </c>
       <c r="O31">
-        <v>0.3537995956317652</v>
+        <v>0.1473917257090722</v>
       </c>
       <c r="P31">
-        <v>0.3812007964838307</v>
+        <v>0.1525586072047502</v>
       </c>
       <c r="Q31">
-        <v>511.6260270261359</v>
+        <v>1225.484610899279</v>
       </c>
       <c r="R31">
-        <v>4604.634243235223</v>
+        <v>11029.36149809351</v>
       </c>
       <c r="S31">
-        <v>0.02536357453242947</v>
+        <v>0.03452284229039299</v>
       </c>
       <c r="T31">
-        <v>0.02974392467968962</v>
+        <v>0.03829690176371019</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>37.788217</v>
+        <v>34.07644866666666</v>
       </c>
       <c r="H32">
-        <v>113.364651</v>
+        <v>102.229346</v>
       </c>
       <c r="I32">
-        <v>0.2672607777430924</v>
+        <v>0.1963453463161056</v>
       </c>
       <c r="J32">
-        <v>0.290888514614802</v>
+        <v>0.2104331214786783</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.263127</v>
+        <v>3.6221635</v>
       </c>
       <c r="N32">
-        <v>2.526254</v>
+        <v>7.244327</v>
       </c>
       <c r="O32">
-        <v>0.008853724851211806</v>
+        <v>0.01770926137088299</v>
       </c>
       <c r="P32">
-        <v>0.006359620920621169</v>
+        <v>0.01222004485606616</v>
       </c>
       <c r="Q32">
-        <v>47.73131717455901</v>
+        <v>123.4304685700237</v>
       </c>
       <c r="R32">
-        <v>286.387903047354</v>
+        <v>740.582811420142</v>
       </c>
       <c r="S32">
-        <v>0.002366253389658212</v>
+        <v>0.003477131056868451</v>
       </c>
       <c r="T32">
-        <v>0.001849940683112712</v>
+        <v>0.002571502183671467</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>37.788217</v>
+        <v>34.07644866666666</v>
       </c>
       <c r="H33">
-        <v>113.364651</v>
+        <v>102.229346</v>
       </c>
       <c r="I33">
-        <v>0.2672607777430924</v>
+        <v>0.1963453463161056</v>
       </c>
       <c r="J33">
-        <v>0.290888514614802</v>
+        <v>0.2104331214786783</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>49.664215</v>
       </c>
       <c r="O33">
-        <v>0.1160382908346841</v>
+        <v>0.08093841928217094</v>
       </c>
       <c r="P33">
-        <v>0.1250252669447441</v>
+        <v>0.08377575101749463</v>
       </c>
       <c r="Q33">
-        <v>625.5740445182183</v>
+        <v>564.1266910059321</v>
       </c>
       <c r="R33">
-        <v>5630.166400663965</v>
+        <v>5077.140219053389</v>
       </c>
       <c r="S33">
-        <v>0.03101248385645682</v>
+        <v>0.01589188196423601</v>
       </c>
       <c r="T33">
-        <v>0.03636841419087573</v>
+        <v>0.01762919279083195</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>37.788217</v>
+        <v>34.07644866666666</v>
       </c>
       <c r="H34">
-        <v>113.364651</v>
+        <v>102.229346</v>
       </c>
       <c r="I34">
-        <v>0.2672607777430924</v>
+        <v>0.1963453463161056</v>
       </c>
       <c r="J34">
-        <v>0.290888514614802</v>
+        <v>0.2104331214786783</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>43.17386966666666</v>
+        <v>59.86223333333334</v>
       </c>
       <c r="N34">
-        <v>129.521609</v>
+        <v>179.5867</v>
       </c>
       <c r="O34">
-        <v>0.3026216388302571</v>
+        <v>0.292674788519288</v>
       </c>
       <c r="P34">
-        <v>0.3260591905124801</v>
+        <v>0.302934631409225</v>
       </c>
       <c r="Q34">
-        <v>1631.463555693718</v>
+        <v>2039.892321255355</v>
       </c>
       <c r="R34">
-        <v>14683.17200124346</v>
+        <v>18359.0308912982</v>
       </c>
       <c r="S34">
-        <v>0.08087889455566372</v>
+        <v>0.05746533270981257</v>
       </c>
       <c r="T34">
-        <v>0.0948468736046801</v>
+        <v>0.06374748009143606</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>37.788217</v>
+        <v>34.07644866666666</v>
       </c>
       <c r="H35">
-        <v>113.364651</v>
+        <v>102.229346</v>
       </c>
       <c r="I35">
-        <v>0.2672607777430924</v>
+        <v>0.1963453463161056</v>
       </c>
       <c r="J35">
-        <v>0.290888514614802</v>
+        <v>0.2104331214786783</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>29.501953</v>
+        <v>17.159516</v>
       </c>
       <c r="N35">
-        <v>59.003906</v>
+        <v>34.319032</v>
       </c>
       <c r="O35">
-        <v>0.2067901125028462</v>
+        <v>0.08389526144853719</v>
       </c>
       <c r="P35">
-        <v>0.1485371126561165</v>
+        <v>0.05789083105397781</v>
       </c>
       <c r="Q35">
-        <v>1114.826201887801</v>
+        <v>584.7353661188453</v>
       </c>
       <c r="R35">
-        <v>6688.957211326807</v>
+        <v>3508.412196713072</v>
       </c>
       <c r="S35">
-        <v>0.05526688629709225</v>
+        <v>0.01647244416339326</v>
       </c>
       <c r="T35">
-        <v>0.04320774006570924</v>
+        <v>0.01218214828368335</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>37.788217</v>
+        <v>34.07644866666666</v>
       </c>
       <c r="H36">
-        <v>113.364651</v>
+        <v>102.229346</v>
       </c>
       <c r="I36">
-        <v>0.2672607777430924</v>
+        <v>0.1963453463161056</v>
       </c>
       <c r="J36">
-        <v>0.290888514614802</v>
+        <v>0.2104331214786783</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.697247666666667</v>
+        <v>77.18956900000001</v>
       </c>
       <c r="N36">
-        <v>5.091743</v>
+        <v>231.568707</v>
       </c>
       <c r="O36">
-        <v>0.0118966373492356</v>
+        <v>0.3773905436700489</v>
       </c>
       <c r="P36">
-        <v>0.01281801248220741</v>
+        <v>0.3906201344584861</v>
       </c>
       <c r="Q36">
-        <v>64.13596313074368</v>
+        <v>2630.346385630625</v>
       </c>
       <c r="R36">
-        <v>577.2236681766931</v>
+        <v>23673.11747067562</v>
       </c>
       <c r="S36">
-        <v>0.003179504550484227</v>
+        <v>0.07409887699331913</v>
       </c>
       <c r="T36">
-        <v>0.003728612611263304</v>
+        <v>0.08219941420652026</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>37.788217</v>
+        <v>34.07644866666666</v>
       </c>
       <c r="H37">
-        <v>113.364651</v>
+        <v>102.229346</v>
       </c>
       <c r="I37">
-        <v>0.2672607777430924</v>
+        <v>0.1963453463161056</v>
       </c>
       <c r="J37">
-        <v>0.290888514614802</v>
+        <v>0.2104331214786783</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>50.47523266666667</v>
+        <v>30.14676433333333</v>
       </c>
       <c r="N37">
-        <v>151.425698</v>
+        <v>90.440293</v>
       </c>
       <c r="O37">
-        <v>0.3537995956317652</v>
+        <v>0.1473917257090722</v>
       </c>
       <c r="P37">
-        <v>0.3812007964838307</v>
+        <v>0.1525586072047502</v>
       </c>
       <c r="Q37">
-        <v>1907.369045133489</v>
+        <v>1027.294667270931</v>
       </c>
       <c r="R37">
-        <v>17166.3214062014</v>
+        <v>9245.652005438376</v>
       </c>
       <c r="S37">
-        <v>0.09455675509373715</v>
+        <v>0.02893967942847623</v>
       </c>
       <c r="T37">
-        <v>0.110886933459161</v>
+        <v>0.03210338392253515</v>
       </c>
     </row>
   </sheetData>
